--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2202651.83371809</v>
+        <v>2306831.468169162</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.2530347261453</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.16836829528608</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>52.23490948285976</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>93.45832099395224</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.6499314317624</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.809349536287</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1105,19 +1107,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>285.2496221436456</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>293.5228477376554</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>39.32117841962441</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,19 +1344,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>83.54375675669414</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>230.5429143689136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.54417886827707</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456199</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>35.41770597126791</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788180832</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>85.08368458989509</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300864</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>29.959001240238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>105.989310737304</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>126.6035148834796</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4312223122543</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>249.0212053075234</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>28.75188085812011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>140.9357387834172</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.85912858529832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833816</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.36653093099</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1935.36653093099</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.36653093099</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064744</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080124</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>732.4676803942466</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>563.5314974663397</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4522,16 +4524,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2765.246565690425</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2434.183678346854</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,25 +4643,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6639240396553</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1135.880659784145</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1135.880659784145</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>846.4634897471846</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>846.4634897471846</v>
       </c>
       <c r="Y7" t="n">
-        <v>653.2087215510563</v>
+        <v>625.6709106036544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>773.9857462093216</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>773.9857462093216</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>362.9998414197141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993392</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.837793613838</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>163.837793613838</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1561.390573585277</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1272.287706710921</v>
       </c>
       <c r="V10" t="n">
-        <v>902.0370936923462</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="W10" t="n">
-        <v>612.6199236553855</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="X10" t="n">
-        <v>384.6303727573681</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.837793613838</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192611</v>
@@ -5042,13 +5044,13 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,25 +5062,25 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723914</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1030.918378293892</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>861.982195365985</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232809</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408878</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429774</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1212.566843124132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841084</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998673</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.528408326419</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687975</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.169680383432</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.485192177545</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1431.068022140585</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.078471242567</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990373</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,37 +5755,37 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755757</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310363</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O21" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714565</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378096</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309226</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4516.727538815335</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>4227.652312159533</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
         <v>929.7309773356195</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7193,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7499,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.8692823226939</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>473.9330993947871</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000582</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>824.5177471529337</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.07129414993528</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>165.5113759375328</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303767</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300315</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>61.35027805667409</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>84.77391660561919</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.4161395899843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>125.5341284403484</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.40075786968296</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.116438016304556</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.77391660561995</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695396</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393068</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
@@ -26338,22 +26340,22 @@
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26436,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26454,10 +26456,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="P4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12996.86414683048</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26488,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089553</v>
+        <v>-913081.2578089554</v>
       </c>
       <c r="C6" t="n">
-        <v>415663.4879186373</v>
+        <v>415663.4879186372</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.487918637</v>
+        <v>415663.4879186372</v>
       </c>
       <c r="E6" t="n">
-        <v>165828.0939894113</v>
+        <v>165828.0939894112</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967667</v>
+        <v>491240.5557967671</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967668</v>
+        <v>491240.5557967671</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967666</v>
+        <v>491240.5557967669</v>
       </c>
       <c r="I6" t="n">
         <v>491240.5557967667</v>
@@ -26546,22 +26548,22 @@
         <v>273709.3533994894</v>
       </c>
       <c r="K6" t="n">
+        <v>491240.5557967671</v>
+      </c>
+      <c r="L6" t="n">
+        <v>491240.5557967669</v>
+      </c>
+      <c r="M6" t="n">
+        <v>406185.5278612546</v>
+      </c>
+      <c r="N6" t="n">
         <v>491240.5557967668</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>491240.555796767</v>
+      </c>
+      <c r="P6" t="n">
         <v>491240.5557967668</v>
-      </c>
-      <c r="M6" t="n">
-        <v>406185.5278612548</v>
-      </c>
-      <c r="N6" t="n">
-        <v>491240.5557967669</v>
-      </c>
-      <c r="O6" t="n">
-        <v>491240.5557967671</v>
-      </c>
-      <c r="P6" t="n">
-        <v>491240.555796767</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.43000689453766</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>147.5787499310939</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.4471047229263</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.18613854007148</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>271.8145707770553</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>9.345240527139595</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.022630645650281</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.9622160619672968</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>117.3988779157981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>330.4099222588446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>136.0051925194751</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>21.59472895491442</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28260,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -30514,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31838,16 +31840,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.1165249313359</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718153</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328816</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>340.7767527663067</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P21" t="n">
-        <v>134.72848811719</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772174</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.13475084531435</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974563</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P21" t="n">
-        <v>0.754080702859717</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028583963</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37865,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2306831.468169162</v>
+        <v>2302818.85815517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9601371840621</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>34.16836829528608</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>93.45832099395224</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>192.5370669569875</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>285.2496221436456</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5228477376554</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.54375675669414</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>157.1290712416213</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>81.54417886827707</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1557845699822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>179.2445652598082</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.07327741456199</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>35.41770597126791</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>85.08368458989509</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>82.47290449300864</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>105.989310737304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182171</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>130.3963959210071</v>
       </c>
     </row>
     <row r="35">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>249.0212053075234</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>125.8152577453149</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4357,22 +4357,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.4676803942466</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>563.5314974663397</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>914.1161452244863</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1135.880659784145</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1135.880659784145</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>846.4634897471846</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>846.4634897471846</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>625.6709106036544</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1501.213961756484</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.251444816072</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>773.9857462093216</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>773.9857462093216</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>362.9998414197141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,10 +4889,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1561.390573585277</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1272.287706710921</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V10" t="n">
-        <v>1017.603218505034</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W10" t="n">
-        <v>1017.603218505034</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="X10" t="n">
-        <v>1017.603218505034</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y10" t="n">
-        <v>796.8106393615039</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.918378293892</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>861.982195365985</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232809</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408878</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429774</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.359422267662</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.566843124132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,37 +5503,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356194</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714565</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872154</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597628</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474271</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614396</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4516.727538815335</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4227.652312159533</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,19 +6788,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134805006</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>615.6449305525937</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>784.5811134805006</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67.07129414993528</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.45968844823017</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.5113759375328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>145.6085800303767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>61.35027805667409</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.77391660561919</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>88.18825743108769</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.116438016304556</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>39.70888054695396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
@@ -26346,16 +26346,16 @@
         <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26438,10 +26438,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089554</v>
+        <v>-913081.2578089552</v>
       </c>
       <c r="C6" t="n">
-        <v>415663.4879186372</v>
+        <v>415663.4879186373</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.4879186372</v>
+        <v>415663.4879186373</v>
       </c>
       <c r="E6" t="n">
-        <v>165828.0939894112</v>
+        <v>165480.7147350553</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967671</v>
+        <v>490893.1765424098</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967671</v>
+        <v>490893.1765424096</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967669</v>
+        <v>490893.1765424096</v>
       </c>
       <c r="I6" t="n">
-        <v>491240.5557967667</v>
+        <v>490893.1765424098</v>
       </c>
       <c r="J6" t="n">
-        <v>273709.3533994894</v>
+        <v>273361.9741451321</v>
       </c>
       <c r="K6" t="n">
-        <v>491240.5557967671</v>
+        <v>490893.1765424098</v>
       </c>
       <c r="L6" t="n">
-        <v>491240.5557967669</v>
+        <v>490893.17654241</v>
       </c>
       <c r="M6" t="n">
-        <v>406185.5278612546</v>
+        <v>405838.1486068979</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967668</v>
+        <v>490893.1765424098</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.555796767</v>
+        <v>490893.1765424098</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967668</v>
+        <v>490893.1765424096</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27438,16 +27438,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.5787499310939</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>235.2778014719915</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4471047229263</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>271.8145707770553</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>193.7008716990661</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9622160619672968</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>117.3988779157981</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0051925194751</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>61.45558211047344</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772174</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.3582339884371</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028583963</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2302818.85815517</v>
+        <v>2304579.388457954</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>261.7337600035976</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9601371840621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734111903</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.8992844578155</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.992060237658</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>192.5370669569875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.42874471570741</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23490948285971</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1290712416213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605716168</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>179.2445652598082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>89.67992556049168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444114</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560552</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182171</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3963959210071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>65.99480013030499</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>44.30292280757614</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2240.582457090723</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296689</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410105</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066534</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066534</v>
       </c>
       <c r="X2" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066534</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2240.582457090723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927788</v>
+        <v>936.5735814686087</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080143</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291645</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513961</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068416</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486471</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.964263962574</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4485,28 +4485,28 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,22 +4515,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1722.044275313594</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1722.044275313594</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1722.044275313594</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="V4" t="n">
-        <v>1722.044275313594</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>2144.88377045846</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2884.252265792695</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2884.252265792695</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>2531.483610522582</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4722,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1913.730159486768</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4895,40 +4895,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783663</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1416.425065783663</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1188.435514885645</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.64624922477</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326753</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832229</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>266.4891497944943</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5811134805006</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>615.6449305525937</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>784.5811134805006</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.426747608945789e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124962</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>50.61478728573221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.18825743108769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>79.42624789262625</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902527</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902524</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.327398212</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="E2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
@@ -26331,31 +26331,31 @@
         <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818156</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818169</v>
@@ -26435,13 +26435,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089552</v>
+        <v>-913081.2578089562</v>
       </c>
       <c r="C6" t="n">
-        <v>415663.4879186373</v>
+        <v>415663.4879186376</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.4879186373</v>
+        <v>415663.4879186375</v>
       </c>
       <c r="E6" t="n">
-        <v>165480.7147350553</v>
+        <v>165793.3560639761</v>
       </c>
       <c r="F6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.817871331</v>
       </c>
       <c r="G6" t="n">
-        <v>490893.1765424096</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="H6" t="n">
-        <v>490893.1765424096</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="I6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="J6" t="n">
-        <v>273361.9741451321</v>
+        <v>273674.6154740536</v>
       </c>
       <c r="K6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.817871331</v>
       </c>
       <c r="L6" t="n">
-        <v>490893.17654241</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="M6" t="n">
-        <v>405838.1486068979</v>
+        <v>406150.7899358192</v>
       </c>
       <c r="N6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="O6" t="n">
-        <v>490893.1765424098</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="P6" t="n">
-        <v>490893.1765424096</v>
+        <v>491205.817871331</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022934</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.5391317674099</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>235.2778014719915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.50340795433981</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>266.3125537477974</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333496</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>193.7008716990661</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.50340795433992</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.45558211047344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-9.193145604601624e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
